--- a/Arquivos/BaseB.xlsx
+++ b/Arquivos/BaseB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jairm\Documents\Code\Empilhador\Arquivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jairm\Documents\Code\Empilhador\empilhador\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/Arquivos/BaseB.xlsx
+++ b/Arquivos/BaseB.xlsx
@@ -24,12 +24,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Nome</t>
   </si>
   <si>
-    <t>Data</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>VALOR</t>
+  </si>
+  <si>
+    <t>NOME_1</t>
+  </si>
+  <si>
+    <t>NOME_2</t>
+  </si>
+  <si>
+    <t>NOME_3</t>
+  </si>
+  <si>
+    <t>NOME_4</t>
+  </si>
+  <si>
+    <t>NOME_5</t>
+  </si>
+  <si>
+    <t>NOME_6</t>
+  </si>
+  <si>
+    <t>NOME_7</t>
+  </si>
+  <si>
+    <t>NOME_8</t>
+  </si>
+  <si>
+    <t>NOME_9</t>
+  </si>
+  <si>
+    <t>NOME_10</t>
+  </si>
+  <si>
+    <t>NOME_11</t>
+  </si>
+  <si>
+    <t>NOME_12</t>
+  </si>
+  <si>
+    <t>NOME_13</t>
+  </si>
+  <si>
+    <t>NOME_14</t>
+  </si>
+  <si>
+    <t>NOME_15</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
 </sst>
 </file>
@@ -67,7 +118,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,143 +399,255 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C16"/>
+  <dimension ref="A2:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:E21"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
-        <v>43709</v>
-      </c>
-      <c r="C2">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
-        <v>43710</v>
-      </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="str">
+        <f>C3&amp;"@email.com"</f>
+        <v>NOME_1@email.com</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <v>43711</v>
-      </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D17" si="0">C4&amp;"@email.com"</f>
+        <v>NOME_2@email.com</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>43712</v>
-      </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>NOME_3@email.com</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>43713</v>
-      </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>NOME_4@email.com</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>43714</v>
-      </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>NOME_5@email.com</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>43715</v>
-      </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>NOME_6@email.com</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>43716</v>
-      </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>NOME_7@email.com</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>80</v>
+      </c>
+      <c r="B10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>43717</v>
-      </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>NOME_8@email.com</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>90</v>
+      </c>
+      <c r="B11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>43718</v>
-      </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>NOME_9@email.com</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
-        <v>43719</v>
-      </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>NOME_10@email.com</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
-        <v>43720</v>
-      </c>
-      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>NOME_11@email.com</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
-        <v>43721</v>
-      </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>NOME_12@email.com</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
-        <v>43722</v>
-      </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>NOME_13@email.com</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
-        <v>43723</v>
-      </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>NOME_14@email.com</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>51</v>
+      </c>
+      <c r="B17" s="1">
         <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>NOME_15@email.com</v>
       </c>
     </row>
   </sheetData>
